--- a/338-renommer-ordrenaissance-en-ordrenaissanceetatcivil/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/338-renommer-ordrenaissance-en-ordrenaissanceetatcivil/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T10:29:09+00:00</t>
+    <t>2025-07-31T10:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
